--- a/Aircraft/sopwithCamel-Bombable/Docs/Notes & Calculations/Camel-JSBSim-calcs-2017-02.xlsx
+++ b/Aircraft/sopwithCamel-Bombable/Docs/Notes & Calculations/Camel-JSBSim-calcs-2017-02.xlsx
@@ -895,7 +895,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="292">
   <si>
     <t>gravity</t>
   </si>
@@ -1678,7 +1678,100 @@
     <t>w/ jsb.xml throttle adjust turned ON @ 11,000 ft; min speed of 45 kts IAS</t>
   </si>
   <si>
-    <t>w/jsb.xml throttle adjust turned ON @ 10,000 ft</t>
+    <t>92.85 throttle @ 15,000 will give us 92.5 kts.</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>w/jsb.xml throttle adjust turned ON @ 13944 ft</t>
+  </si>
+  <si>
+    <t>with bsfc @.5081</t>
+  </si>
+  <si>
+    <t>1.8 1 WITH large wing area (post 2.0gamma)</t>
+  </si>
+  <si>
+    <t>1.8 WITH large wing area (post 2.0gamma)</t>
+  </si>
+  <si>
+    <t>2.0 Trial 1 WITH large wing area</t>
+  </si>
+  <si>
+    <t>with comrpession @ 4.56</t>
+  </si>
+  <si>
+    <t>+1%</t>
+  </si>
+  <si>
+    <t>+5%</t>
+  </si>
+  <si>
+    <t>+4%</t>
+  </si>
+  <si>
+    <t>with comrpession @ 5.2</t>
+  </si>
+  <si>
+    <t>2.0 Trial 4 WITH large wing area</t>
+  </si>
+  <si>
+    <t>with comrpession @ 3.0</t>
+  </si>
+  <si>
+    <t>2.0 Trial 5 WITH large wing area</t>
+  </si>
+  <si>
+    <t>2.0 trial 6</t>
+  </si>
+  <si>
+    <t>2.0 Trial 6 WITH large wing area</t>
+  </si>
+  <si>
+    <t>0.56-.59</t>
+  </si>
+  <si>
+    <t>1/24</t>
+  </si>
+  <si>
+    <t>2.0 trial 7</t>
+  </si>
+  <si>
+    <t>1/30</t>
+  </si>
+  <si>
+    <t>Adjustment needed</t>
+  </si>
+  <si>
+    <t>2.0 Trial 7 WITH large wing area</t>
+  </si>
+  <si>
+    <t>Trial 7 only changes power curve in .63 &amp; less area of the curve, so shouldn't touch these values, only the climb values</t>
+  </si>
+  <si>
+    <t>2.0 trial 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Again, </t>
+  </si>
+  <si>
+    <t>2.0 trial 11</t>
+  </si>
+  <si>
+    <t>2.0 Trial 11 WITH large wing area</t>
+  </si>
+  <si>
+    <t>62mph</t>
+  </si>
+  <si>
+    <t>2.0 trial 12</t>
+  </si>
+  <si>
+    <t>@ ~62mph</t>
+  </si>
+  <si>
+    <t>2.0 trial 13</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1873,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -1800,6 +1893,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1809,7 +1903,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2125,11 +2223,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="245242112"/>
-        <c:axId val="245240576"/>
+        <c:axId val="155059328"/>
+        <c:axId val="155060864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245242112"/>
+        <c:axId val="155059328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2138,12 +2236,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245240576"/>
+        <c:crossAx val="155060864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245240576"/>
+        <c:axId val="155060864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,20 +2249,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245242112"/>
+        <c:crossAx val="155059328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2472,11 +2569,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68050944"/>
-        <c:axId val="68052480"/>
+        <c:axId val="156216320"/>
+        <c:axId val="156218112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68050944"/>
+        <c:axId val="156216320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,12 +2597,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68052480"/>
+        <c:crossAx val="156218112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68052480"/>
+        <c:axId val="156218112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +2610,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68050944"/>
+        <c:crossAx val="156216320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2526,7 +2623,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2604,11 +2701,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68080384"/>
-        <c:axId val="68081920"/>
+        <c:axId val="155865088"/>
+        <c:axId val="155866624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68080384"/>
+        <c:axId val="155865088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,12 +2729,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68081920"/>
+        <c:crossAx val="155866624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68081920"/>
+        <c:axId val="155866624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,7 +2742,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68080384"/>
+        <c:crossAx val="155865088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2658,7 +2755,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3098,11 +3195,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68094592"/>
-        <c:axId val="68120960"/>
+        <c:axId val="155891584"/>
+        <c:axId val="155893120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68094592"/>
+        <c:axId val="155891584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,12 +3223,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68120960"/>
+        <c:crossAx val="155893120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68120960"/>
+        <c:axId val="155893120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3139,7 +3236,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68094592"/>
+        <c:crossAx val="155891584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3152,7 +3249,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3239,11 +3336,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68132224"/>
-        <c:axId val="68134016"/>
+        <c:axId val="156330624"/>
+        <c:axId val="156332416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68132224"/>
+        <c:axId val="156330624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,12 +3364,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68134016"/>
+        <c:crossAx val="156332416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68134016"/>
+        <c:axId val="156332416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3377,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68132224"/>
+        <c:crossAx val="156330624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3293,7 +3390,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3485,23 +3582,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68148608"/>
-        <c:axId val="68371584"/>
+        <c:axId val="156338816"/>
+        <c:axId val="156348800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68148608"/>
+        <c:axId val="156338816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68371584"/>
+        <c:crossAx val="156348800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68371584"/>
+        <c:axId val="156348800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +3606,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68148608"/>
+        <c:crossAx val="156338816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3521,7 +3618,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3713,23 +3810,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68948352"/>
-        <c:axId val="68949888"/>
+        <c:axId val="156441984"/>
+        <c:axId val="156447872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68948352"/>
+        <c:axId val="156441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68949888"/>
+        <c:crossAx val="156447872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68949888"/>
+        <c:axId val="156447872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3737,7 +3834,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68948352"/>
+        <c:crossAx val="156441984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3749,7 +3846,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4119,23 +4216,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68978560"/>
-        <c:axId val="68980096"/>
+        <c:axId val="156464256"/>
+        <c:axId val="156465792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68978560"/>
+        <c:axId val="156464256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68980096"/>
+        <c:crossAx val="156465792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68980096"/>
+        <c:axId val="156465792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4143,7 +4240,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68978560"/>
+        <c:crossAx val="156464256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4155,7 +4252,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4174,7 +4271,7 @@
           <c:x val="0.19240266841644793"/>
           <c:y val="2.8252405949256338E-2"/>
           <c:w val="0.78388910761154862"/>
-          <c:h val="0.89719889180519119"/>
+          <c:h val="0.8971988918051913"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5727,11 +5824,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69887872"/>
-        <c:axId val="69889408"/>
+        <c:axId val="156509312"/>
+        <c:axId val="156510848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69887872"/>
+        <c:axId val="156509312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5755,12 +5852,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69889408"/>
+        <c:crossAx val="156510848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69889408"/>
+        <c:axId val="156510848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5768,21 +5865,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69887872"/>
+        <c:crossAx val="156509312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7344,11 +7440,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81409152"/>
-        <c:axId val="81410688"/>
+        <c:axId val="156590464"/>
+        <c:axId val="156592000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81409152"/>
+        <c:axId val="156590464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7372,12 +7468,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81410688"/>
+        <c:crossAx val="156592000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81410688"/>
+        <c:axId val="156592000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7385,21 +7481,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81409152"/>
+        <c:crossAx val="156590464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7418,7 +7513,7 @@
           <c:x val="0.19240266841644793"/>
           <c:y val="7.4548702245552642E-2"/>
           <c:w val="0.78388910761154862"/>
-          <c:h val="0.89719889180519119"/>
+          <c:h val="0.8971988918051913"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8971,11 +9066,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="81727872"/>
-        <c:axId val="81729408"/>
+        <c:axId val="156654976"/>
+        <c:axId val="156664960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81727872"/>
+        <c:axId val="156654976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8999,12 +9094,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81729408"/>
+        <c:crossAx val="156664960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81729408"/>
+        <c:axId val="156664960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9012,7 +9107,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81727872"/>
+        <c:crossAx val="156654976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9025,7 +9120,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9246,11 +9341,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="226500608"/>
-        <c:axId val="232840192"/>
+        <c:axId val="155088768"/>
+        <c:axId val="155090304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226500608"/>
+        <c:axId val="155088768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -9259,35 +9354,34 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232840192"/>
+        <c:crossAx val="155090304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232840192"/>
+        <c:axId val="155090304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.3000000000000005E-2"/>
+          <c:max val="5.3000000000000012E-2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226500608"/>
+        <c:crossAx val="155088768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9578,11 +9672,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69004288"/>
-        <c:axId val="81740928"/>
+        <c:axId val="156394624"/>
+        <c:axId val="156598656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69004288"/>
+        <c:axId val="156394624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9606,12 +9700,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81740928"/>
+        <c:crossAx val="156598656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81740928"/>
+        <c:axId val="156598656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -9621,7 +9715,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69004288"/>
+        <c:crossAx val="156394624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9635,7 +9729,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9792,11 +9886,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="84312448"/>
-        <c:axId val="84313984"/>
+        <c:axId val="156822912"/>
+        <c:axId val="156710016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84312448"/>
+        <c:axId val="156822912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9820,12 +9914,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84313984"/>
+        <c:crossAx val="156710016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84313984"/>
+        <c:axId val="156710016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -9835,7 +9929,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84312448"/>
+        <c:crossAx val="156822912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9849,7 +9943,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10011,23 +10105,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84329600"/>
-        <c:axId val="84331136"/>
+        <c:axId val="156733824"/>
+        <c:axId val="156735360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84329600"/>
+        <c:axId val="156733824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84331136"/>
+        <c:crossAx val="156735360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84331136"/>
+        <c:axId val="156735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10035,7 +10129,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84329600"/>
+        <c:crossAx val="156733824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10048,7 +10142,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10195,23 +10289,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85918848"/>
-        <c:axId val="85920384"/>
+        <c:axId val="156758400"/>
+        <c:axId val="156759936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85918848"/>
+        <c:axId val="156758400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85920384"/>
+        <c:crossAx val="156759936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85920384"/>
+        <c:axId val="156759936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10219,7 +10313,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85918848"/>
+        <c:crossAx val="156758400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10232,7 +10326,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10376,23 +10470,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85944192"/>
-        <c:axId val="85945728"/>
+        <c:axId val="156914816"/>
+        <c:axId val="156916352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85944192"/>
+        <c:axId val="156914816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85945728"/>
+        <c:crossAx val="156916352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85945728"/>
+        <c:axId val="156916352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10400,7 +10494,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85944192"/>
+        <c:crossAx val="156914816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10413,7 +10507,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10581,11 +10675,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="248525568"/>
-        <c:axId val="248527104"/>
+        <c:axId val="156940928"/>
+        <c:axId val="156942720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248525568"/>
+        <c:axId val="156940928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10593,12 +10687,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248527104"/>
+        <c:crossAx val="156942720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248527104"/>
+        <c:axId val="156942720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -10608,7 +10702,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248525568"/>
+        <c:crossAx val="156940928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10621,7 +10715,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10789,11 +10883,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="247062528"/>
-        <c:axId val="260862720"/>
+        <c:axId val="156971008"/>
+        <c:axId val="156972544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247062528"/>
+        <c:axId val="156971008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -10801,12 +10895,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260862720"/>
+        <c:crossAx val="156972544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260862720"/>
+        <c:axId val="156972544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -10816,7 +10910,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247062528"/>
+        <c:crossAx val="156971008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10829,7 +10923,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10840,124 +10934,203 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.4507575757575774E-2"/>
-          <c:y val="4.8611111111111112E-2"/>
-          <c:w val="0.86553030303030298"/>
-          <c:h val="0.79513888888888884"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Camel-down'!$C$5:$C$10</c:f>
+              <c:f>'C_THRUST, C_POWER'!$AG$95:$AG$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.380577479999999</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.140638757999994</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.327063419999973</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146.83945781999998</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>178.90784515999999</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Camel-down'!$D$5:$D$10</c:f>
+              <c:f>'C_THRUST, C_POWER'!$AH$95:$AH$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.9</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.5</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>226</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>326</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6081632653061202E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9521224489795901E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4530188679245302E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.432</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86233472"/>
-        <c:axId val="86235008"/>
+        <c:axId val="84848640"/>
+        <c:axId val="84850944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86233472"/>
+        <c:axId val="84848640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="86235008"/>
+        <c:crossAx val="84850944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86235008"/>
+        <c:axId val="84850944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86233472"/>
+        <c:crossAx val="84848640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10967,11 +11140,10 @@
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10982,121 +11154,185 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.4398148148148175E-2"/>
-          <c:y val="4.8611111111111112E-2"/>
-          <c:w val="0.83564814814814836"/>
-          <c:h val="0.79513888888888884"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Zero-down'!$C$5:$C$10</c:f>
+              <c:f>'C_THRUST, C_POWER'!$AM$95:$AM$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.824584539999989</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135.02478880000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>244.73242970000001</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>305.49358466000001</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>364.56692975999999</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Zero-down'!$D$5:$D$10</c:f>
+              <c:f>'C_THRUST, C_POWER'!$AN$95:$AN$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.6</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.1</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6081632999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9521224000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4530189000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.432</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="221906432"/>
-        <c:axId val="221907968"/>
+        <c:axId val="84825984"/>
+        <c:axId val="84845312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221906432"/>
+        <c:axId val="84825984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="221907968"/>
+        <c:crossAx val="84845312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221907968"/>
+        <c:axId val="84845312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221906432"/>
+        <c:crossAx val="84825984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11106,11 +11342,10 @@
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11121,121 +11356,197 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.7916666666666666E-2"/>
-          <c:y val="4.8611111111111112E-2"/>
-          <c:w val="0.70000000000000018"/>
-          <c:h val="0.79513888888888884"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Zero-down'!$F$5:$F$10</c:f>
+              <c:f>'C_THRUST, C_POWER'!$AT$95:$AT$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9855018731187488E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14563748503847046</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19749460009276953</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23426945666176799</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Zero-down'!$C$5:$C$9</c:f>
+              <c:f>'C_THRUST, C_POWER'!$AU$95:$AU$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.824584539999989</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135.02478880000001</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>244.73242970000001</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>305.49358466000001</c:v>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3600000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9521224000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4530189000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="221923584"/>
-        <c:axId val="221962240"/>
+        <c:axId val="84194816"/>
+        <c:axId val="84198528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221923584"/>
+        <c:axId val="84194816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="221962240"/>
+        <c:crossAx val="84198528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221962240"/>
+        <c:axId val="84198528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221923584"/>
+        <c:crossAx val="84194816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11245,11 +11556,10 @@
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11289,8 +11599,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11898006490496059"/>
-          <c:y val="1.2544802867383513E-2"/>
+          <c:x val="0.11898006490496058"/>
+          <c:y val="1.2544802867383515E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -11832,11 +12142,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69177728"/>
-        <c:axId val="69180800"/>
+        <c:axId val="155417984"/>
+        <c:axId val="155449216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69177728"/>
+        <c:axId val="155417984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11857,7 +12167,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -11879,12 +12188,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69180800"/>
+        <c:crossAx val="155449216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69180800"/>
+        <c:axId val="155449216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11911,26 +12220,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69177728"/>
+        <c:crossAx val="155417984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11946,9 +12253,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2051282051282055E-2"/>
+          <c:x val="4.4507575757575774E-2"/>
           <c:y val="4.8611111111111112E-2"/>
-          <c:w val="0.8950320512820511"/>
+          <c:w val="0.86553030303030298"/>
           <c:h val="0.79513888888888884"/>
         </c:manualLayout>
       </c:layout>
@@ -11964,70 +12271,64 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Camel-up'!$C$5:$C$11</c:f>
+              <c:f>'Camel-down'!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.80198310400003</c:v>
+                  <c:v>30.380577479999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.004957760000011</c:v>
+                  <c:v>51.140638757999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.13181692000002</c:v>
+                  <c:v>79.327063419999973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.946485940000017</c:v>
+                  <c:v>146.83945781999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.38553524000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.073345100000012</c:v>
+                  <c:v>178.90784515999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Camel-up'!$D$5:$D$11</c:f>
+              <c:f>'Camel-down'!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>15.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.1</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="223403392"/>
-        <c:axId val="225444992"/>
+        <c:axId val="157050368"/>
+        <c:axId val="157051904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="223403392"/>
+        <c:axId val="157050368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12051,12 +12352,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225444992"/>
+        <c:crossAx val="157051904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225444992"/>
+        <c:axId val="157051904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12064,27 +12365,449 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223403392"/>
+        <c:crossAx val="157050368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4398148148148188E-2"/>
+          <c:y val="4.8611111111111112E-2"/>
+          <c:w val="0.83564814814814858"/>
+          <c:h val="0.79513888888888884"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Zero-down'!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.824584539999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.02478880000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244.73242970000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305.49358466000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364.56692975999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Zero-down'!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="155724416"/>
+        <c:axId val="155758976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="155724416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155758976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="155758976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155724416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7916666666666666E-2"/>
+          <c:y val="4.8611111111111112E-2"/>
+          <c:w val="0.70000000000000029"/>
+          <c:h val="0.79513888888888884"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Zero-down'!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9855018731187488E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14563748503847046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19749460009276953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23426945666176799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Zero-down'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.824584539999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.02478880000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244.73242970000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305.49358466000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="155778432"/>
+        <c:axId val="157156480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="155778432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157156480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="157156480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155778432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2051282051282055E-2"/>
+          <c:y val="4.8611111111111112E-2"/>
+          <c:w val="0.89503205128205099"/>
+          <c:h val="0.79513888888888884"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Camel-up'!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.80198310400003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.004957760000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.13181692000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.946485940000017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.38553524000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.073345100000012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Camel-up'!$D$5:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="157209344"/>
+        <c:axId val="157210880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="157209344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157210880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="157210880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157209344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -12177,11 +12900,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="225460608"/>
-        <c:axId val="225462144"/>
+        <c:axId val="152323584"/>
+        <c:axId val="152325120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225460608"/>
+        <c:axId val="152323584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12205,12 +12928,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225462144"/>
+        <c:crossAx val="152325120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225462144"/>
+        <c:axId val="152325120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12218,27 +12941,26 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225460608"/>
+        <c:crossAx val="152323584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -12248,7 +12970,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.7777777777777801E-2"/>
+          <c:x val="2.7777777777777811E-2"/>
           <c:y val="4.8611111111111112E-2"/>
           <c:w val="0.90555555555555567"/>
           <c:h val="0.79513888888888884"/>
@@ -12325,11 +13047,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="225576448"/>
-        <c:axId val="225577984"/>
+        <c:axId val="157248128"/>
+        <c:axId val="157258112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225576448"/>
+        <c:axId val="157248128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12353,12 +13075,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225577984"/>
+        <c:crossAx val="157258112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225577984"/>
+        <c:axId val="157258112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12366,27 +13088,26 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225576448"/>
+        <c:crossAx val="157248128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -12396,9 +13117,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.4398148148148175E-2"/>
+          <c:x val="5.4398148148148188E-2"/>
           <c:y val="4.8611111111111112E-2"/>
-          <c:w val="0.83333333333333359"/>
+          <c:w val="0.8333333333333337"/>
           <c:h val="0.79513888888888884"/>
         </c:manualLayout>
       </c:layout>
@@ -12461,11 +13182,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="225597696"/>
-        <c:axId val="225624064"/>
+        <c:axId val="157281664"/>
+        <c:axId val="152441984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225597696"/>
+        <c:axId val="157281664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12489,12 +13210,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225624064"/>
+        <c:crossAx val="152441984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225624064"/>
+        <c:axId val="152441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12502,27 +13223,26 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225597696"/>
+        <c:crossAx val="157281664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -12532,9 +13252,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.3103448275862051E-2"/>
+          <c:x val="4.3103448275862044E-2"/>
           <c:y val="4.8611111111111112E-2"/>
-          <c:w val="0.85775862068965536"/>
+          <c:w val="0.85775862068965558"/>
           <c:h val="0.79513888888888884"/>
         </c:manualLayout>
       </c:layout>
@@ -12609,11 +13329,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="225877376"/>
-        <c:axId val="225883264"/>
+        <c:axId val="152490752"/>
+        <c:axId val="152492288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225877376"/>
+        <c:axId val="152490752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12637,12 +13357,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225883264"/>
+        <c:crossAx val="152492288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225883264"/>
+        <c:axId val="152492288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12650,21 +13370,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225877376"/>
+        <c:crossAx val="152490752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12700,7 +13419,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -12904,11 +13622,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="166064896"/>
-        <c:axId val="166067584"/>
+        <c:axId val="155412736"/>
+        <c:axId val="155795840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166064896"/>
+        <c:axId val="155412736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12929,7 +13647,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -12951,12 +13668,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166067584"/>
+        <c:crossAx val="155795840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166067584"/>
+        <c:axId val="155795840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12983,26 +13700,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166064896"/>
+        <c:crossAx val="155412736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13038,7 +13753,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -13242,11 +13956,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="246915456"/>
-        <c:axId val="246917376"/>
+        <c:axId val="155948544"/>
+        <c:axId val="155950464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246915456"/>
+        <c:axId val="155948544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13267,7 +13981,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -13289,12 +14002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246917376"/>
+        <c:crossAx val="155950464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246917376"/>
+        <c:axId val="155950464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13321,26 +14034,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246915456"/>
+        <c:crossAx val="155948544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13376,7 +14087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -13580,11 +14290,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67761280"/>
-        <c:axId val="67763200"/>
+        <c:axId val="156004736"/>
+        <c:axId val="156006656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67761280"/>
+        <c:axId val="156004736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13605,7 +14315,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -13627,12 +14336,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67763200"/>
+        <c:crossAx val="156006656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67763200"/>
+        <c:axId val="156006656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13659,26 +14368,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67761280"/>
+        <c:crossAx val="156004736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13768,11 +14475,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67977216"/>
-        <c:axId val="67978752"/>
+        <c:axId val="156118016"/>
+        <c:axId val="156123904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67977216"/>
+        <c:axId val="156118016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13796,12 +14503,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67978752"/>
+        <c:crossAx val="156123904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67978752"/>
+        <c:axId val="156123904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13809,7 +14516,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67977216"/>
+        <c:crossAx val="156118016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13822,7 +14529,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13888,11 +14595,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68002944"/>
-        <c:axId val="68004480"/>
+        <c:axId val="156148096"/>
+        <c:axId val="156149632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68002944"/>
+        <c:axId val="156148096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13916,12 +14623,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68004480"/>
+        <c:crossAx val="156149632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68004480"/>
+        <c:axId val="156149632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13929,7 +14636,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68002944"/>
+        <c:crossAx val="156148096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13942,7 +14649,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14032,11 +14739,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68016000"/>
-        <c:axId val="68017536"/>
+        <c:axId val="156181632"/>
+        <c:axId val="156183168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68016000"/>
+        <c:axId val="156181632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14060,12 +14767,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68017536"/>
+        <c:crossAx val="156183168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68017536"/>
+        <c:axId val="156183168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14073,7 +14780,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68016000"/>
+        <c:crossAx val="156181632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14086,7 +14793,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15098,15 +15805,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15180,6 +15887,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22811,25 +23608,25 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="28.5" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="K4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="27.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="K5" t="s">
         <v>252</v>
       </c>
@@ -23019,11 +23816,11 @@
         <v>11.9</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M28" si="2">K13/$C$10</f>
+        <f t="shared" ref="M13" si="2">K13/$C$10</f>
         <v>52.245401484045587</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:N34" si="3">L13*$D$10</f>
+        <f t="shared" ref="N13" si="3">L13*$D$10</f>
         <v>714</v>
       </c>
       <c r="P13">
@@ -23040,11 +23837,11 @@
         <v>11.9</v>
       </c>
       <c r="W13">
-        <f t="shared" ref="W13:W28" si="4">U13/$C$10</f>
+        <f t="shared" ref="W13" si="4">U13/$C$10</f>
         <v>52.245401484045587</v>
       </c>
       <c r="X13">
-        <f t="shared" ref="X13:X34" si="5">V13*$D$10</f>
+        <f t="shared" ref="X13" si="5">V13*$D$10</f>
         <v>714</v>
       </c>
     </row>
@@ -23083,18 +23880,18 @@
         <v>-7.14</v>
       </c>
       <c r="M14">
-        <f>K14/$C$10</f>
+        <f t="shared" ref="M14:M33" si="8">K14/$C$10</f>
         <v>109.89946787943511</v>
       </c>
       <c r="N14">
-        <f>L14*$D$10</f>
+        <f t="shared" ref="N14:N33" si="9">L14*$D$10</f>
         <v>-428.4</v>
       </c>
       <c r="P14">
         <v>54</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:R24" si="8">P14/$C$10</f>
+        <f t="shared" ref="R14:R24" si="10">P14/$C$10</f>
         <v>62.142107492036608</v>
       </c>
       <c r="T14">
@@ -23107,11 +23904,11 @@
         <v>-7.14</v>
       </c>
       <c r="W14">
-        <f>U14/$C$10</f>
+        <f t="shared" ref="W14:W34" si="11">U14/$C$10</f>
         <v>109.89946787943511</v>
       </c>
       <c r="X14">
-        <f>V14*$D$10</f>
+        <f t="shared" ref="X14:X34" si="12">V14*$D$10</f>
         <v>-428.4</v>
       </c>
     </row>
@@ -23150,18 +23947,18 @@
         <v>-4.3</v>
       </c>
       <c r="M15">
-        <f>K15/$C$10</f>
+        <f t="shared" si="8"/>
         <v>106.21697262064775</v>
       </c>
       <c r="N15">
-        <f>L15*$D$10</f>
+        <f t="shared" si="9"/>
         <v>-258</v>
       </c>
       <c r="P15">
         <v>53</v>
       </c>
       <c r="R15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60.991327723665556</v>
       </c>
       <c r="T15">
@@ -23174,11 +23971,11 @@
         <v>-4.3</v>
       </c>
       <c r="W15">
-        <f>U15/$C$10</f>
+        <f t="shared" si="11"/>
         <v>106.21697262064775</v>
       </c>
       <c r="X15">
-        <f>V15*$D$10</f>
+        <f t="shared" si="12"/>
         <v>-258</v>
       </c>
     </row>
@@ -23214,18 +24011,18 @@
         <v>-1.6</v>
       </c>
       <c r="M16">
-        <f>K16/$C$10</f>
+        <f t="shared" si="8"/>
         <v>102.99478926920882</v>
       </c>
       <c r="N16">
-        <f>L16*$D$10</f>
+        <f t="shared" si="9"/>
         <v>-96</v>
       </c>
       <c r="P16">
         <v>75.7</v>
       </c>
       <c r="R16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>87.114028465688364</v>
       </c>
       <c r="T16">
@@ -23238,11 +24035,11 @@
         <v>-1.6</v>
       </c>
       <c r="W16">
-        <f>U16/$C$10</f>
+        <f t="shared" si="11"/>
         <v>102.99478926920882</v>
       </c>
       <c r="X16">
-        <f>V16*$D$10</f>
+        <f t="shared" si="12"/>
         <v>-96</v>
       </c>
     </row>
@@ -23282,11 +24079,11 @@
         <v>0.75</v>
       </c>
       <c r="M17">
-        <f>K17/$C$10</f>
+        <f t="shared" si="8"/>
         <v>99.715066929351337</v>
       </c>
       <c r="N17">
-        <f>L17*$D$10</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="P17">
@@ -23297,7 +24094,7 @@
         <v>1.2665754591085874</v>
       </c>
       <c r="R17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>80.324427832299165</v>
       </c>
       <c r="T17">
@@ -23310,11 +24107,11 @@
         <v>0.75</v>
       </c>
       <c r="W17">
-        <f>U17/$C$10</f>
+        <f t="shared" si="11"/>
         <v>99.715066929351337</v>
       </c>
       <c r="X17">
-        <f>V17*$D$10</f>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
     </row>
@@ -23337,7 +24134,7 @@
         <v>84.2</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G24" si="9">F18/A18</f>
+        <f t="shared" ref="G18:G24" si="13">F18/A18</f>
         <v>1.1727019498607243</v>
       </c>
       <c r="H18">
@@ -23354,22 +24151,22 @@
         <v>3.15</v>
       </c>
       <c r="M18">
-        <f>K18/$C$10</f>
+        <f t="shared" si="8"/>
         <v>95.975032682145425</v>
       </c>
       <c r="N18">
-        <f>L18*$D$10</f>
+        <f t="shared" si="9"/>
         <v>189</v>
       </c>
       <c r="P18">
         <v>84.2</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18:Q25" si="10">P18/K18</f>
+        <f t="shared" ref="Q18:Q25" si="14">P18/K18</f>
         <v>1.0095923261390887</v>
       </c>
       <c r="R18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>96.895656496842264</v>
       </c>
       <c r="T18">
@@ -23382,11 +24179,11 @@
         <v>3.15</v>
       </c>
       <c r="W18">
-        <f>U18/$C$10</f>
+        <f t="shared" si="11"/>
         <v>95.975032682145425</v>
       </c>
       <c r="X18">
-        <f>V18*$D$10</f>
+        <f t="shared" si="12"/>
         <v>189</v>
       </c>
     </row>
@@ -23409,7 +24206,7 @@
         <v>68.3</v>
       </c>
       <c r="G19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1715265866209263</v>
       </c>
       <c r="H19">
@@ -23426,22 +24223,22 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="M19">
-        <f>K19/$C$10</f>
+        <f t="shared" si="8"/>
         <v>90.336211817127293</v>
       </c>
       <c r="N19">
-        <f>L19*$D$10</f>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="P19">
         <v>68.3</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="14"/>
+        <v>0.87006369426751584</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="10"/>
-        <v>0.87006369426751584</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="8"/>
         <v>78.598258179742587</v>
       </c>
       <c r="T19">
@@ -23454,11 +24251,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="W19">
-        <f>U19/$C$10</f>
+        <f t="shared" si="11"/>
         <v>90.336211817127293</v>
       </c>
       <c r="X19">
-        <f>V19*$D$10</f>
+        <f t="shared" si="12"/>
         <v>264</v>
       </c>
     </row>
@@ -23481,7 +24278,7 @@
         <v>66.3</v>
       </c>
       <c r="G20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1707575490022955</v>
       </c>
       <c r="H20">
@@ -23498,22 +24295,22 @@
         <v>5.6</v>
       </c>
       <c r="M20">
-        <f>K20/$C$10</f>
+        <f t="shared" si="8"/>
         <v>84.812468928946259</v>
       </c>
       <c r="N20">
-        <f>L20*$D$10</f>
+        <f t="shared" si="9"/>
         <v>336</v>
       </c>
       <c r="P20">
         <v>66.3</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="14"/>
+        <v>0.89959294436906367</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="10"/>
-        <v>0.89959294436906367</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="8"/>
         <v>76.296698643000497</v>
       </c>
       <c r="T20">
@@ -23526,11 +24323,11 @@
         <v>5.6</v>
       </c>
       <c r="W20">
-        <f>U20/$C$10</f>
+        <f t="shared" si="11"/>
         <v>84.812468928946259</v>
       </c>
       <c r="X20">
-        <f>V20*$D$10</f>
+        <f t="shared" si="12"/>
         <v>336</v>
       </c>
     </row>
@@ -23553,7 +24350,7 @@
         <v>64.8</v>
       </c>
       <c r="G21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1758301578660859</v>
       </c>
       <c r="H21">
@@ -23570,22 +24367,22 @@
         <v>6.96</v>
       </c>
       <c r="M21">
-        <f>K21/$C$10</f>
+        <f t="shared" si="8"/>
         <v>81.475207600670217</v>
       </c>
       <c r="N21">
-        <f>L21*$D$10</f>
+        <f t="shared" si="9"/>
         <v>417.6</v>
       </c>
       <c r="P21">
         <v>64.8</v>
       </c>
       <c r="Q21">
+        <f t="shared" si="14"/>
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="10"/>
-        <v>0.9152542372881356</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="8"/>
         <v>74.570528990443918</v>
       </c>
       <c r="T21">
@@ -23598,11 +24395,11 @@
         <v>6.96</v>
       </c>
       <c r="W21">
-        <f>U21/$C$10</f>
+        <f t="shared" si="11"/>
         <v>81.475207600670217</v>
       </c>
       <c r="X21">
-        <f>V21*$D$10</f>
+        <f t="shared" si="12"/>
         <v>417.6</v>
       </c>
     </row>
@@ -23625,7 +24422,7 @@
         <v>63.1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1728624535315986</v>
       </c>
       <c r="H22">
@@ -23642,22 +24439,22 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="M22">
-        <f>K22/$C$10</f>
+        <f t="shared" si="8"/>
         <v>77.792712341882861</v>
       </c>
       <c r="N22">
-        <f>L22*$D$10</f>
+        <f t="shared" si="9"/>
         <v>506.99999999999994</v>
       </c>
       <c r="P22">
         <v>63.1</v>
       </c>
       <c r="Q22">
+        <f t="shared" si="14"/>
+        <v>0.93343195266272194</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="10"/>
-        <v>0.93343195266272194</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="8"/>
         <v>72.614203384213141</v>
       </c>
       <c r="T22">
@@ -23670,11 +24467,11 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="W22">
-        <f>U22/$C$10</f>
+        <f t="shared" si="11"/>
         <v>77.792712341882861</v>
       </c>
       <c r="X22">
-        <f>V22*$D$10</f>
+        <f t="shared" si="12"/>
         <v>506.99999999999994</v>
       </c>
     </row>
@@ -23697,7 +24494,7 @@
         <v>60.9</v>
       </c>
       <c r="G23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1779497098646035</v>
       </c>
       <c r="H23">
@@ -23714,22 +24511,22 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="M23">
-        <f>K23/$C$10</f>
+        <f t="shared" si="8"/>
         <v>74.22529505993262</v>
       </c>
       <c r="N23">
-        <f>L23*$D$10</f>
+        <f t="shared" si="9"/>
         <v>558</v>
       </c>
       <c r="P23">
         <v>60.9</v>
       </c>
       <c r="Q23">
+        <f t="shared" si="14"/>
+        <v>0.94418604651162785</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="10"/>
-        <v>0.94418604651162785</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="8"/>
         <v>70.082487893796838</v>
       </c>
       <c r="T23">
@@ -23742,11 +24539,11 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="W23">
-        <f>U23/$C$10</f>
+        <f t="shared" si="11"/>
         <v>74.22529505993262</v>
       </c>
       <c r="X23">
-        <f>V23*$D$10</f>
+        <f t="shared" si="12"/>
         <v>558</v>
       </c>
     </row>
@@ -23769,7 +24566,7 @@
         <v>57.8</v>
       </c>
       <c r="G24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.1700404858299596</v>
       </c>
       <c r="H24">
@@ -23786,22 +24583,22 @@
         <v>10.1</v>
       </c>
       <c r="M24">
-        <f>K24/$C$10</f>
+        <f t="shared" si="8"/>
         <v>71.693579569516302</v>
       </c>
       <c r="N24">
-        <f>L24*$D$10</f>
+        <f t="shared" si="9"/>
         <v>606</v>
       </c>
       <c r="P24">
         <v>57.8</v>
       </c>
       <c r="Q24">
+        <f t="shared" si="14"/>
+        <v>0.92776886035313</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="10"/>
-        <v>0.92776886035313</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="8"/>
         <v>66.515070611846582</v>
       </c>
       <c r="T24">
@@ -23814,11 +24611,11 @@
         <v>10.1</v>
       </c>
       <c r="W24">
-        <f>U24/$C$10</f>
+        <f t="shared" si="11"/>
         <v>71.693579569516302</v>
       </c>
       <c r="X24">
-        <f>V24*$D$10</f>
+        <f t="shared" si="12"/>
         <v>606</v>
       </c>
     </row>
@@ -23830,11 +24627,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25" si="11">A25/$C$10</f>
+        <f t="shared" ref="C25" si="15">A25/$C$10</f>
         <v>89.760821932941766</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25" si="12">B25*$D$10</f>
+        <f t="shared" ref="D25" si="16">B25*$D$10</f>
         <v>138</v>
       </c>
       <c r="F25">
@@ -23850,18 +24647,18 @@
         <v>11.6</v>
       </c>
       <c r="M25">
-        <f>K25/$C$10</f>
+        <f t="shared" si="8"/>
         <v>63.983355121430286</v>
       </c>
       <c r="N25">
-        <f>L25*$D$10</f>
+        <f t="shared" si="9"/>
         <v>696</v>
       </c>
       <c r="P25">
         <v>91.3</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.6420863309352518</v>
       </c>
       <c r="T25">
@@ -23874,11 +24671,11 @@
         <v>11.5</v>
       </c>
       <c r="W25">
-        <f>U25/$C$10</f>
+        <f t="shared" si="11"/>
         <v>62.717497376222127</v>
       </c>
       <c r="X25">
-        <f>V25*$D$10</f>
+        <f t="shared" si="12"/>
         <v>690</v>
       </c>
     </row>
@@ -23918,11 +24715,11 @@
         <v>13.5</v>
       </c>
       <c r="M26">
-        <f>K26/$C$10</f>
+        <f t="shared" si="8"/>
         <v>60.761171769991343</v>
       </c>
       <c r="N26">
-        <f>L26*$D$10</f>
+        <f t="shared" si="9"/>
         <v>810</v>
       </c>
       <c r="P26">
@@ -23949,11 +24746,11 @@
         <v>12.95</v>
       </c>
       <c r="W26">
-        <f>U26/$C$10</f>
+        <f t="shared" si="11"/>
         <v>60.531015816317144</v>
       </c>
       <c r="X26">
-        <f>V26*$D$10</f>
+        <f t="shared" si="12"/>
         <v>777</v>
       </c>
     </row>
@@ -23993,11 +24790,11 @@
         <v>13.77</v>
       </c>
       <c r="M27">
-        <f>K27/$C$10</f>
+        <f t="shared" si="8"/>
         <v>58.11437830273794</v>
       </c>
       <c r="N27">
-        <f>L27*$D$10</f>
+        <f t="shared" si="9"/>
         <v>826.19999999999993</v>
       </c>
       <c r="P27">
@@ -24024,11 +24821,11 @@
         <v>11.9</v>
       </c>
       <c r="W27">
-        <f>U27/$C$10</f>
+        <f t="shared" si="11"/>
         <v>56.963598534366888</v>
       </c>
       <c r="X27">
-        <f>V27*$D$10</f>
+        <f t="shared" si="12"/>
         <v>714</v>
       </c>
     </row>
@@ -24059,11 +24856,11 @@
         <v>13.6</v>
       </c>
       <c r="M28">
-        <f>K28/$C$10</f>
+        <f t="shared" si="8"/>
         <v>54.662038997624791</v>
       </c>
       <c r="N28">
-        <f>L28*$D$10</f>
+        <f t="shared" si="9"/>
         <v>816</v>
       </c>
       <c r="Q28">
@@ -24087,11 +24884,11 @@
         <v>12.3</v>
       </c>
       <c r="W28">
-        <f>U28/$C$10</f>
+        <f t="shared" si="11"/>
         <v>53.166025298742433</v>
       </c>
       <c r="X28">
-        <f>V28*$D$10</f>
+        <f t="shared" si="12"/>
         <v>738</v>
       </c>
     </row>
@@ -24106,11 +24903,11 @@
         <v>13.5</v>
       </c>
       <c r="M29">
-        <f>K29/$C$10</f>
+        <f t="shared" si="8"/>
         <v>53.453720240835196</v>
       </c>
       <c r="N29">
-        <f>L29*$D$10</f>
+        <f t="shared" si="9"/>
         <v>810</v>
       </c>
       <c r="S29" t="s">
@@ -24126,11 +24923,11 @@
         <v>12.35</v>
       </c>
       <c r="W29">
-        <f>U29/$C$10</f>
+        <f t="shared" si="11"/>
         <v>50.979543738837435</v>
       </c>
       <c r="X29">
-        <f>V29*$D$10</f>
+        <f t="shared" si="12"/>
         <v>741</v>
       </c>
     </row>
@@ -24148,11 +24945,11 @@
         <v>11.8</v>
       </c>
       <c r="M30">
-        <f>K30/$C$10</f>
+        <f t="shared" si="8"/>
         <v>47.987516341072713</v>
       </c>
       <c r="N30">
-        <f>L30*$D$10</f>
+        <f t="shared" si="9"/>
         <v>708</v>
       </c>
       <c r="T30">
@@ -24165,11 +24962,11 @@
         <v>12</v>
       </c>
       <c r="W30">
-        <f>U30/$C$10</f>
+        <f t="shared" si="11"/>
         <v>47.757360387398499</v>
       </c>
       <c r="X30">
-        <f>V30*$D$10</f>
+        <f t="shared" si="12"/>
         <v>720</v>
       </c>
     </row>
@@ -24187,11 +24984,11 @@
         <v>10.7</v>
       </c>
       <c r="M31">
-        <f>K31/$C$10</f>
+        <f t="shared" si="8"/>
         <v>44.305021082285357</v>
       </c>
       <c r="N31">
-        <f>L31*$D$10</f>
+        <f t="shared" si="9"/>
         <v>642</v>
       </c>
       <c r="T31">
@@ -24204,11 +25001,11 @@
         <v>10.7</v>
       </c>
       <c r="W31">
-        <f>U31/$C$10</f>
+        <f t="shared" si="11"/>
         <v>44.305021082285357</v>
       </c>
       <c r="X31">
-        <f>V31*$D$10</f>
+        <f t="shared" si="12"/>
         <v>642</v>
       </c>
     </row>
@@ -24226,11 +25023,11 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="M32">
-        <f>K32/$C$10</f>
+        <f t="shared" si="8"/>
         <v>41.888383568706153</v>
       </c>
       <c r="N32">
-        <f>L32*$D$10</f>
+        <f t="shared" si="9"/>
         <v>582</v>
       </c>
       <c r="T32">
@@ -24243,11 +25040,11 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="W32">
-        <f>U32/$C$10</f>
+        <f t="shared" si="11"/>
         <v>41.888383568706153</v>
       </c>
       <c r="X32">
-        <f>V32*$D$10</f>
+        <f t="shared" si="12"/>
         <v>582</v>
       </c>
     </row>
@@ -24263,11 +25060,11 @@
         <v>10.9</v>
       </c>
       <c r="M33">
-        <f>K33/$C$10</f>
+        <f t="shared" si="8"/>
         <v>42.809007383402999</v>
       </c>
       <c r="N33">
-        <f>L33*$D$10</f>
+        <f t="shared" si="9"/>
         <v>654</v>
       </c>
       <c r="T33">
@@ -24280,11 +25077,11 @@
         <v>10.9</v>
       </c>
       <c r="W33">
-        <f>U33/$C$10</f>
+        <f t="shared" si="11"/>
         <v>42.809007383402999</v>
       </c>
       <c r="X33">
-        <f>V33*$D$10</f>
+        <f t="shared" si="12"/>
         <v>654</v>
       </c>
     </row>
@@ -24311,11 +25108,11 @@
         <v>0.1</v>
       </c>
       <c r="W34">
-        <f>U34/$C$10</f>
+        <f t="shared" si="11"/>
         <v>102.18924343134908</v>
       </c>
       <c r="X34">
-        <f>V34*$D$10</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
     </row>
@@ -24624,22 +25421,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
@@ -25038,24 +25835,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
@@ -25469,24 +26266,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
@@ -26279,134 +27076,134 @@
       </c>
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1">
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G37" s="15"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="J37" s="15"/>
+      <c r="J37" s="16"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="15" t="s">
+      <c r="L37" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="M37" s="15"/>
+      <c r="M37" s="16"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="15" t="s">
+      <c r="O37" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="P37" s="15"/>
-      <c r="R37" s="15" t="s">
+      <c r="P37" s="16"/>
+      <c r="R37" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="S37" s="15"/>
-      <c r="X37" s="15" t="s">
+      <c r="S37" s="16"/>
+      <c r="X37" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="Y37" s="15"/>
-      <c r="AA37" s="15" t="s">
+      <c r="Y37" s="16"/>
+      <c r="AA37" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="AB37" s="15"/>
-      <c r="AD37" s="15" t="s">
+      <c r="AB37" s="16"/>
+      <c r="AD37" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="AE37" s="15"/>
-      <c r="AG37" s="15" t="s">
+      <c r="AE37" s="16"/>
+      <c r="AG37" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="AH37" s="15"/>
-      <c r="AJ37" s="15" t="s">
+      <c r="AH37" s="16"/>
+      <c r="AJ37" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="AK37" s="15"/>
-      <c r="AM37" s="15" t="s">
+      <c r="AK37" s="16"/>
+      <c r="AM37" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="AN37" s="15"/>
+      <c r="AN37" s="16"/>
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1">
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AG38" s="15"/>
-      <c r="AH38" s="15"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="15"/>
-      <c r="AM38" s="15"/>
-      <c r="AN38" s="15"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
     </row>
     <row r="39" spans="1:40">
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="11"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
     </row>
     <row r="40" spans="1:40">
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
       <c r="H40" s="11"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="15"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="15"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="16"/>
+      <c r="AM40" s="16"/>
+      <c r="AN40" s="16"/>
     </row>
     <row r="41" spans="1:40">
       <c r="AB41">
@@ -34213,13 +35010,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z147"/>
+  <dimension ref="A1:CJ147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I86" workbookViewId="0">
-      <selection activeCell="P125" sqref="P125"/>
+    <sheetView tabSelected="1" topLeftCell="AR87" workbookViewId="0">
+      <selection activeCell="AT104" sqref="AT104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -35416,7 +36216,7 @@
         <v>4.2860000000000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:47">
       <c r="A81" s="3">
         <v>1.2</v>
       </c>
@@ -35449,7 +36249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:47">
       <c r="A82" s="3">
         <v>1.3</v>
       </c>
@@ -35478,7 +36278,7 @@
         <v>2.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:47">
       <c r="A83" s="3">
         <v>1.5</v>
       </c>
@@ -35507,7 +36307,7 @@
         <v>-7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:47">
       <c r="A84" s="3">
         <v>1.7</v>
       </c>
@@ -35536,7 +36336,7 @@
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:47">
       <c r="A85" s="3">
         <v>1.9</v>
       </c>
@@ -35565,7 +36365,7 @@
         <v>-8.6399999999999991E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:47">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -35594,7 +36394,7 @@
         <v>-8.6399999999999991E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:47">
       <c r="A87" s="3">
         <v>3</v>
       </c>
@@ -35623,7 +36423,7 @@
         <v>-0.1152</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:47">
       <c r="A88" s="3">
         <v>5</v>
       </c>
@@ -35652,7 +36452,7 @@
         <v>-0.28799999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:47">
       <c r="A91" s="1" t="s">
         <v>189</v>
       </c>
@@ -35677,15 +36477,33 @@
       <c r="U91" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="AG91" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>279</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>289</v>
+      </c>
+      <c r="AT91" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:47">
       <c r="A92" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D92" s="14"/>
+      <c r="D92" s="15"/>
       <c r="G92" t="s">
         <v>227</v>
       </c>
@@ -35693,7 +36511,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:47">
       <c r="A93" t="s">
         <v>75</v>
       </c>
@@ -35748,8 +36566,20 @@
       <c r="V93" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="AG93" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:47">
       <c r="B94">
         <v>0.6</v>
       </c>
@@ -35757,7 +36587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:47">
       <c r="A95">
         <v>0</v>
       </c>
@@ -35816,8 +36646,44 @@
       <c r="V95">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+      <c r="AQ95">
+        <v>0.11</v>
+      </c>
+      <c r="AR95">
+        <v>0</v>
+      </c>
+      <c r="AS95">
+        <v>0.11</v>
+      </c>
+      <c r="AT95">
+        <v>0</v>
+      </c>
+      <c r="AU95">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:47">
       <c r="A96">
         <v>0.01</v>
       </c>
@@ -35876,8 +36742,44 @@
       <c r="V96">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="AG96">
+        <v>0.1</v>
+      </c>
+      <c r="AH96">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AJ96">
+        <v>0.1</v>
+      </c>
+      <c r="AK96">
+        <v>0.09</v>
+      </c>
+      <c r="AM96">
+        <v>0.1</v>
+      </c>
+      <c r="AN96">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AP96">
+        <v>0.1</v>
+      </c>
+      <c r="AQ96">
+        <v>0.105</v>
+      </c>
+      <c r="AR96">
+        <v>0.1</v>
+      </c>
+      <c r="AS96">
+        <v>0.105</v>
+      </c>
+      <c r="AT96">
+        <v>0.1</v>
+      </c>
+      <c r="AU96">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:47">
       <c r="A97">
         <v>0.1</v>
       </c>
@@ -35936,8 +36838,44 @@
       <c r="V97">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="AG97">
+        <v>0.2</v>
+      </c>
+      <c r="AH97">
+        <v>0.09</v>
+      </c>
+      <c r="AJ97">
+        <v>0.2</v>
+      </c>
+      <c r="AK97">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AM97">
+        <v>0.2</v>
+      </c>
+      <c r="AN97">
+        <v>0.09</v>
+      </c>
+      <c r="AP97">
+        <v>0.2</v>
+      </c>
+      <c r="AQ97">
+        <v>0.1</v>
+      </c>
+      <c r="AR97">
+        <v>0.2</v>
+      </c>
+      <c r="AS97">
+        <v>0.1</v>
+      </c>
+      <c r="AT97">
+        <v>0.2</v>
+      </c>
+      <c r="AU97">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:47">
       <c r="A98">
         <v>0.2</v>
       </c>
@@ -35996,8 +36934,44 @@
       <c r="V98">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="AG98">
+        <v>0.3</v>
+      </c>
+      <c r="AH98">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AJ98">
+        <v>0.3</v>
+      </c>
+      <c r="AK98">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AM98">
+        <v>0.3</v>
+      </c>
+      <c r="AN98">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AP98">
+        <v>0.3</v>
+      </c>
+      <c r="AQ98">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AR98">
+        <v>0.3</v>
+      </c>
+      <c r="AS98">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AT98">
+        <v>0.3</v>
+      </c>
+      <c r="AU98">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:47">
       <c r="A99">
         <v>0.3</v>
       </c>
@@ -36056,8 +37030,44 @@
       <c r="V99">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:22">
+      <c r="AG99">
+        <v>0.4</v>
+      </c>
+      <c r="AH99">
+        <v>0.08</v>
+      </c>
+      <c r="AJ99">
+        <v>0.4</v>
+      </c>
+      <c r="AK99">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AM99">
+        <v>0.4</v>
+      </c>
+      <c r="AN99">
+        <v>0.08</v>
+      </c>
+      <c r="AP99">
+        <v>0.4</v>
+      </c>
+      <c r="AQ99">
+        <v>0.09</v>
+      </c>
+      <c r="AR99">
+        <v>0.4</v>
+      </c>
+      <c r="AS99">
+        <v>0.09</v>
+      </c>
+      <c r="AT99">
+        <v>0.4</v>
+      </c>
+      <c r="AU99">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:47">
       <c r="A100">
         <v>0.4</v>
       </c>
@@ -36116,8 +37126,44 @@
       <c r="V100">
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:22">
+      <c r="AG100">
+        <v>0.5</v>
+      </c>
+      <c r="AH100">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AJ100">
+        <v>0.5</v>
+      </c>
+      <c r="AK100">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AM100">
+        <v>0.5</v>
+      </c>
+      <c r="AN100">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AP100">
+        <v>0.5</v>
+      </c>
+      <c r="AQ100">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AR100">
+        <v>0.5</v>
+      </c>
+      <c r="AS100">
+        <v>0.08</v>
+      </c>
+      <c r="AT100">
+        <v>0.5</v>
+      </c>
+      <c r="AU100">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="101" spans="1:47">
       <c r="A101">
         <v>0.5</v>
       </c>
@@ -36174,8 +37220,44 @@
       <c r="V101">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="AG101">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="AH101">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AJ101">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="AK101">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AM101">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="AN101">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AP101">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="AQ101">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AR101">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="AS101">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AT101">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="AU101">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="102" spans="1:47">
       <c r="A102">
         <v>0.53580000000000005</v>
       </c>
@@ -36233,8 +37315,32 @@
       <c r="V102">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:22">
+      <c r="AG102">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AH102">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP102">
+        <v>0.6</v>
+      </c>
+      <c r="AQ102">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AR102">
+        <v>0.6</v>
+      </c>
+      <c r="AS102">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT102">
+        <v>0.6</v>
+      </c>
+      <c r="AU102">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:47">
       <c r="A103">
         <v>0.64</v>
       </c>
@@ -36294,8 +37400,38 @@
       <c r="V103">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="AG103">
+        <v>0.59</v>
+      </c>
+      <c r="AH103">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AJ103">
+        <v>0.59</v>
+      </c>
+      <c r="AK103">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AP103">
+        <v>0.68</v>
+      </c>
+      <c r="AQ103">
+        <v>0.06</v>
+      </c>
+      <c r="AR103">
+        <v>0.72</v>
+      </c>
+      <c r="AS103">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AT103">
+        <v>0.68</v>
+      </c>
+      <c r="AU103">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:47">
       <c r="A104">
         <v>0.8</v>
       </c>
@@ -36355,8 +37491,32 @@
       <c r="V104">
         <v>5.5E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="AG104">
+        <v>0.63</v>
+      </c>
+      <c r="AH104">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AP104">
+        <v>0.8</v>
+      </c>
+      <c r="AQ104">
+        <v>5.6081632999999999E-2</v>
+      </c>
+      <c r="AR104">
+        <v>0.8</v>
+      </c>
+      <c r="AS104">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AT104">
+        <v>0.8</v>
+      </c>
+      <c r="AU104">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:47">
       <c r="A105">
         <v>0.97599999999999998</v>
       </c>
@@ -36417,8 +37577,44 @@
       <c r="V105">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="AG105">
+        <v>0.68</v>
+      </c>
+      <c r="AH105">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AJ105">
+        <v>0.68</v>
+      </c>
+      <c r="AK105">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AM105">
+        <v>0.68</v>
+      </c>
+      <c r="AN105">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AP105">
+        <v>0.83</v>
+      </c>
+      <c r="AQ105">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="AR105">
+        <v>0.83</v>
+      </c>
+      <c r="AS105">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="AT105">
+        <v>0.83</v>
+      </c>
+      <c r="AU105">
+        <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:47">
       <c r="A106">
         <v>1.03</v>
       </c>
@@ -36477,8 +37673,44 @@
       <c r="V106">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="AG106">
+        <v>0.8</v>
+      </c>
+      <c r="AH106">
+        <v>5.6081632653061202E-2</v>
+      </c>
+      <c r="AJ106">
+        <v>0.8</v>
+      </c>
+      <c r="AK106">
+        <v>5.6081632653061202E-2</v>
+      </c>
+      <c r="AM106">
+        <v>0.8</v>
+      </c>
+      <c r="AN106">
+        <v>5.6081632999999999E-2</v>
+      </c>
+      <c r="AP106">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="AQ106">
+        <v>4.9521224000000003E-2</v>
+      </c>
+      <c r="AR106">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="AS106">
+        <v>4.9521224000000003E-2</v>
+      </c>
+      <c r="AT106">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="AU106">
+        <v>4.9521224000000003E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:47">
       <c r="A107">
         <v>1.1000000000000001</v>
       </c>
@@ -36538,8 +37770,44 @@
       <c r="V107">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="AG107">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="AH107">
+        <v>4.9521224489795901E-2</v>
+      </c>
+      <c r="AJ107">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="AK107">
+        <v>4.9521224489795901E-2</v>
+      </c>
+      <c r="AM107">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="AN107">
+        <v>4.9521224000000003E-2</v>
+      </c>
+      <c r="AP107">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AQ107">
+        <v>3.4530189000000003E-2</v>
+      </c>
+      <c r="AR107">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AS107">
+        <v>3.4530189000000003E-2</v>
+      </c>
+      <c r="AT107">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AU107">
+        <v>3.4530189000000003E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47">
       <c r="A108">
         <v>1.2</v>
       </c>
@@ -36599,8 +37867,44 @@
       <c r="V108">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="AG108">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AH108">
+        <v>3.4530188679245302E-2</v>
+      </c>
+      <c r="AJ108">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AK108">
+        <v>3.4530188679245302E-2</v>
+      </c>
+      <c r="AM108">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AN108">
+        <v>3.4530189000000003E-2</v>
+      </c>
+      <c r="AP108">
+        <v>1.04</v>
+      </c>
+      <c r="AQ108">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AR108">
+        <v>1.04</v>
+      </c>
+      <c r="AS108">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AT108">
+        <v>1.04</v>
+      </c>
+      <c r="AU108">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47">
       <c r="A109">
         <v>1.3</v>
       </c>
@@ -36659,8 +37963,44 @@
       <c r="V109">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="AG109">
+        <v>1.04</v>
+      </c>
+      <c r="AH109">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AJ109">
+        <v>1.04</v>
+      </c>
+      <c r="AK109">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AM109">
+        <v>1.04</v>
+      </c>
+      <c r="AN109">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AP109">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AQ109">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AR109">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AS109">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AT109">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AU109">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47">
       <c r="A110">
         <v>1.5</v>
       </c>
@@ -36720,8 +38060,44 @@
       <c r="V110">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="AG110">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH110">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AJ110">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK110">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AM110">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AN110">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AP110">
+        <v>1.2</v>
+      </c>
+      <c r="AQ110">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AR110">
+        <v>1.2</v>
+      </c>
+      <c r="AS110">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AT110">
+        <v>1.2</v>
+      </c>
+      <c r="AU110">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:47">
       <c r="A111">
         <v>1.7</v>
       </c>
@@ -36781,8 +38157,44 @@
       <c r="V111">
         <v>-0.08</v>
       </c>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="AG111">
+        <v>1.2</v>
+      </c>
+      <c r="AH111">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AJ111">
+        <v>1.2</v>
+      </c>
+      <c r="AK111">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM111">
+        <v>1.2</v>
+      </c>
+      <c r="AN111">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP111">
+        <v>1.3</v>
+      </c>
+      <c r="AQ111">
+        <v>-0.01</v>
+      </c>
+      <c r="AR111">
+        <v>1.3</v>
+      </c>
+      <c r="AS111">
+        <v>-0.01</v>
+      </c>
+      <c r="AT111">
+        <v>1.3</v>
+      </c>
+      <c r="AU111">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="112" spans="1:47">
       <c r="A112">
         <v>1.9</v>
       </c>
@@ -36842,8 +38254,44 @@
       <c r="V112">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="113" spans="1:25">
+      <c r="AG112">
+        <v>1.3</v>
+      </c>
+      <c r="AH112">
+        <v>-0.01</v>
+      </c>
+      <c r="AJ112">
+        <v>1.3</v>
+      </c>
+      <c r="AK112">
+        <v>-0.01</v>
+      </c>
+      <c r="AM112">
+        <v>1.3</v>
+      </c>
+      <c r="AN112">
+        <v>-0.01</v>
+      </c>
+      <c r="AP112">
+        <v>1.5</v>
+      </c>
+      <c r="AQ112">
+        <v>-0.08</v>
+      </c>
+      <c r="AR112">
+        <v>1.5</v>
+      </c>
+      <c r="AS112">
+        <v>-0.08</v>
+      </c>
+      <c r="AT112">
+        <v>1.5</v>
+      </c>
+      <c r="AU112">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="113" spans="1:88">
       <c r="A113">
         <v>2</v>
       </c>
@@ -36903,8 +38351,44 @@
       <c r="V113">
         <v>-0.432</v>
       </c>
-    </row>
-    <row r="114" spans="1:25">
+      <c r="AG113">
+        <v>1.5</v>
+      </c>
+      <c r="AH113">
+        <v>-0.08</v>
+      </c>
+      <c r="AJ113">
+        <v>1.5</v>
+      </c>
+      <c r="AK113">
+        <v>-0.08</v>
+      </c>
+      <c r="AM113">
+        <v>1.5</v>
+      </c>
+      <c r="AN113">
+        <v>-0.08</v>
+      </c>
+      <c r="AP113">
+        <v>1.7</v>
+      </c>
+      <c r="AQ113">
+        <v>-0.19</v>
+      </c>
+      <c r="AR113">
+        <v>1.7</v>
+      </c>
+      <c r="AS113">
+        <v>-0.19</v>
+      </c>
+      <c r="AT113">
+        <v>1.7</v>
+      </c>
+      <c r="AU113">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:88">
       <c r="A114">
         <v>3</v>
       </c>
@@ -36964,8 +38448,44 @@
       <c r="V114">
         <v>-0.52200000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:25">
+      <c r="AG114">
+        <v>1.7</v>
+      </c>
+      <c r="AH114">
+        <v>-0.19</v>
+      </c>
+      <c r="AJ114">
+        <v>1.7</v>
+      </c>
+      <c r="AK114">
+        <v>-0.19</v>
+      </c>
+      <c r="AM114">
+        <v>1.7</v>
+      </c>
+      <c r="AN114">
+        <v>-0.19</v>
+      </c>
+      <c r="AP114">
+        <v>1.9</v>
+      </c>
+      <c r="AQ114">
+        <v>-0.432</v>
+      </c>
+      <c r="AR114">
+        <v>1.9</v>
+      </c>
+      <c r="AS114">
+        <v>-0.432</v>
+      </c>
+      <c r="AT114">
+        <v>1.9</v>
+      </c>
+      <c r="AU114">
+        <v>-0.432</v>
+      </c>
+    </row>
+    <row r="115" spans="1:88">
       <c r="A115">
         <v>5</v>
       </c>
@@ -37025,26 +38545,176 @@
       <c r="V115">
         <v>-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:25">
+      <c r="AG115">
+        <v>1.9</v>
+      </c>
+      <c r="AH115">
+        <v>-0.432</v>
+      </c>
+      <c r="AJ115">
+        <v>1.9</v>
+      </c>
+      <c r="AK115">
+        <v>-0.432</v>
+      </c>
+      <c r="AM115">
+        <v>1.9</v>
+      </c>
+      <c r="AN115">
+        <v>-0.432</v>
+      </c>
+      <c r="AP115">
+        <v>2</v>
+      </c>
+      <c r="AQ115">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="AR115">
+        <v>2</v>
+      </c>
+      <c r="AS115">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="AT115">
+        <v>2</v>
+      </c>
+      <c r="AU115">
+        <v>-0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:88">
       <c r="U116">
         <v>5</v>
       </c>
       <c r="V116">
         <v>-10</v>
       </c>
-    </row>
-    <row r="117" spans="1:25">
+      <c r="AG116">
+        <v>2</v>
+      </c>
+      <c r="AH116">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="AJ116">
+        <v>2</v>
+      </c>
+      <c r="AK116">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="AM116">
+        <v>2</v>
+      </c>
+      <c r="AN116">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="AP116">
+        <v>3</v>
+      </c>
+      <c r="AQ116">
+        <v>-2</v>
+      </c>
+      <c r="AR116">
+        <v>3</v>
+      </c>
+      <c r="AS116">
+        <v>-2</v>
+      </c>
+      <c r="AT116">
+        <v>3</v>
+      </c>
+      <c r="AU116">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:88">
       <c r="K117" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="118" spans="1:25">
+      <c r="AG117">
+        <v>3</v>
+      </c>
+      <c r="AH117">
+        <v>-2</v>
+      </c>
+      <c r="AJ117">
+        <v>3</v>
+      </c>
+      <c r="AK117">
+        <v>-2</v>
+      </c>
+      <c r="AM117">
+        <v>3</v>
+      </c>
+      <c r="AN117">
+        <v>-2</v>
+      </c>
+      <c r="AP117">
+        <v>5</v>
+      </c>
+      <c r="AQ117">
+        <v>-10</v>
+      </c>
+      <c r="AR117">
+        <v>5</v>
+      </c>
+      <c r="AS117">
+        <v>-10</v>
+      </c>
+      <c r="AT117">
+        <v>5</v>
+      </c>
+      <c r="AU117">
+        <v>-10</v>
+      </c>
+      <c r="BK117" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:88">
       <c r="K118" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="119" spans="1:25">
+      <c r="AG118">
+        <v>5</v>
+      </c>
+      <c r="AH118">
+        <v>-10</v>
+      </c>
+      <c r="AJ118">
+        <v>5</v>
+      </c>
+      <c r="AK118">
+        <v>-10</v>
+      </c>
+      <c r="AM118">
+        <v>5</v>
+      </c>
+      <c r="AN118">
+        <v>-10</v>
+      </c>
+      <c r="AP118" t="s">
+        <v>263</v>
+      </c>
+      <c r="AT118" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW118" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY118" t="s">
+        <v>273</v>
+      </c>
+      <c r="BA118" t="s">
+        <v>273</v>
+      </c>
+      <c r="BD118" t="s">
+        <v>273</v>
+      </c>
+      <c r="BK118" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:88">
       <c r="K119" t="s">
         <v>75</v>
       </c>
@@ -37087,8 +38757,35 @@
       <c r="Y119" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="120" spans="1:25">
+      <c r="AG119" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP119" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AT119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AW119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AY119" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA119" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BK119" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:88">
       <c r="K120">
         <v>0.89</v>
       </c>
@@ -37122,8 +38819,86 @@
       <c r="Y120">
         <v>107.1</v>
       </c>
-    </row>
-    <row r="121" spans="1:25">
+      <c r="AG120" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN120" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO120" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP120" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ120" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR120" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS120" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT120" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU120" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW120" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX120" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY120" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ120" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA120" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB120" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC120" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD120" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE120" t="s">
+        <v>224</v>
+      </c>
+      <c r="BK120" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL120" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:88">
       <c r="K121">
         <v>0.88</v>
       </c>
@@ -37166,8 +38941,50 @@
       <c r="Y121">
         <v>109.4</v>
       </c>
-    </row>
-    <row r="122" spans="1:25">
+      <c r="AG121">
+        <v>0.89</v>
+      </c>
+      <c r="AK121">
+        <v>95.9</v>
+      </c>
+      <c r="AM121">
+        <v>500</v>
+      </c>
+      <c r="AU121">
+        <v>99.5</v>
+      </c>
+      <c r="AW121">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="AX121">
+        <v>99.2</v>
+      </c>
+      <c r="AY121">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AZ121">
+        <v>98.5</v>
+      </c>
+      <c r="BA121">
+        <v>0.879</v>
+      </c>
+      <c r="BB121">
+        <v>97.9</v>
+      </c>
+      <c r="BD121">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="BE121">
+        <v>100.99</v>
+      </c>
+      <c r="BK121">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="BL121">
+        <v>100.99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:88">
       <c r="K122">
         <v>0.88</v>
       </c>
@@ -37210,8 +39027,80 @@
       <c r="Y122">
         <v>107.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:25">
+      <c r="AG122">
+        <v>0.88</v>
+      </c>
+      <c r="AK122">
+        <v>94.85</v>
+      </c>
+      <c r="AL122">
+        <v>0.88</v>
+      </c>
+      <c r="AM122">
+        <v>6500</v>
+      </c>
+      <c r="AN122">
+        <v>95</v>
+      </c>
+      <c r="AO122">
+        <v>99.9</v>
+      </c>
+      <c r="AP122">
+        <v>0.876</v>
+      </c>
+      <c r="AQ122">
+        <v>102.4</v>
+      </c>
+      <c r="AR122">
+        <v>0.87</v>
+      </c>
+      <c r="AS122">
+        <v>98.2</v>
+      </c>
+      <c r="AT122">
+        <v>0.876</v>
+      </c>
+      <c r="AU122">
+        <v>98.5</v>
+      </c>
+      <c r="AV122" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW122">
+        <v>0.874</v>
+      </c>
+      <c r="AX122">
+        <v>98.7</v>
+      </c>
+      <c r="AY122">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AZ122">
+        <v>97.2</v>
+      </c>
+      <c r="BA122">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="BB122">
+        <v>96.5</v>
+      </c>
+      <c r="BC122">
+        <v>99.9</v>
+      </c>
+      <c r="BD122">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="BE122">
+        <v>100.2</v>
+      </c>
+      <c r="BK122">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="BL122">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:88">
       <c r="K123">
         <v>0.86</v>
       </c>
@@ -37251,25 +39140,169 @@
       <c r="Y123">
         <v>106.3</v>
       </c>
-    </row>
-    <row r="124" spans="1:25">
+      <c r="AG123">
+        <v>0.88</v>
+      </c>
+      <c r="AK123">
+        <v>87.1</v>
+      </c>
+      <c r="AL123">
+        <v>0.9</v>
+      </c>
+      <c r="AM123">
+        <v>10000</v>
+      </c>
+      <c r="AN123">
+        <v>88.6</v>
+      </c>
+      <c r="AO123">
+        <v>98.2</v>
+      </c>
+      <c r="AP123">
+        <v>0.82</v>
+      </c>
+      <c r="AQ123">
+        <v>94.01</v>
+      </c>
+      <c r="AR123">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="AS123">
+        <v>93.1</v>
+      </c>
+      <c r="AT123">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="AU123">
+        <v>93.9</v>
+      </c>
+      <c r="AV123" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="AW123">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="AX123">
+        <v>91.75</v>
+      </c>
+      <c r="AY123">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="AZ123">
+        <v>91.5</v>
+      </c>
+      <c r="BA123">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="BB123">
+        <v>93.4</v>
+      </c>
+      <c r="BC123">
+        <v>98.2</v>
+      </c>
+      <c r="BD123">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="BE123">
+        <v>98.6</v>
+      </c>
+      <c r="BK123">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="BL123">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:88">
       <c r="L124">
-        <v>67.900000000000006</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="M124">
-        <v>85.7</v>
+        <v>90.1</v>
       </c>
       <c r="N124">
-        <v>67.900000000000006</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="O124">
-        <v>85.7</v>
+        <v>90.1</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25">
+        <v>262</v>
+      </c>
+      <c r="AG124">
+        <v>0.86</v>
+      </c>
+      <c r="AK124">
+        <v>83.5</v>
+      </c>
+      <c r="AM124">
+        <v>15000</v>
+      </c>
+      <c r="AN124">
+        <v>80</v>
+      </c>
+      <c r="AO124">
+        <v>92.5</v>
+      </c>
+      <c r="AP124">
+        <v>0.78</v>
+      </c>
+      <c r="AQ124">
+        <v>88.23</v>
+      </c>
+      <c r="AR124">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="AS124">
+        <v>89.92</v>
+      </c>
+      <c r="AT124">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="AU124">
+        <v>88.45</v>
+      </c>
+      <c r="AV124" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW124">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AX124">
+        <v>86.5</v>
+      </c>
+      <c r="AY124">
+        <v>0.8</v>
+      </c>
+      <c r="AZ124">
+        <v>86.4</v>
+      </c>
+      <c r="BA124">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="BB124">
+        <v>90.3</v>
+      </c>
+      <c r="BC124">
+        <v>92.5</v>
+      </c>
+      <c r="BD124">
+        <v>0.84</v>
+      </c>
+      <c r="BE124">
+        <v>91.2</v>
+      </c>
+      <c r="BK124">
+        <v>0.84</v>
+      </c>
+      <c r="BL124">
+        <v>91.2</v>
+      </c>
+      <c r="BS124" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:88">
       <c r="A125" t="s">
         <v>190</v>
       </c>
@@ -37279,8 +39312,26 @@
       <c r="K125" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="126" spans="1:25">
+      <c r="AL125" t="s">
+        <v>262</v>
+      </c>
+      <c r="BD125" t="s">
+        <v>273</v>
+      </c>
+      <c r="BK125" t="s">
+        <v>273</v>
+      </c>
+      <c r="BS125" t="s">
+        <v>273</v>
+      </c>
+      <c r="BY125" t="s">
+        <v>273</v>
+      </c>
+      <c r="CE125" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:88">
       <c r="A126">
         <v>385</v>
       </c>
@@ -37293,8 +39344,26 @@
       <c r="O126" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="127" spans="1:25">
+      <c r="AG126" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD126" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BK126" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BS126" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BY126" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="CE126" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:88">
       <c r="K127" t="s">
         <v>255</v>
       </c>
@@ -37304,99 +39373,476 @@
       <c r="M127">
         <v>0.59</v>
       </c>
-      <c r="N127" s="16">
+      <c r="N127" s="13">
         <v>0.28263888888888888</v>
       </c>
-      <c r="O127" s="16">
+      <c r="O127" s="13">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="128" spans="1:25">
+      <c r="AI127" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK127" t="s">
+        <v>243</v>
+      </c>
+      <c r="BF127" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG127" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH127" t="s">
+        <v>243</v>
+      </c>
+      <c r="BI127" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="BM127" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN127" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO127" t="s">
+        <v>243</v>
+      </c>
+      <c r="BU127" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV127" t="s">
+        <v>256</v>
+      </c>
+      <c r="BW127" t="s">
+        <v>243</v>
+      </c>
+      <c r="BX127" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="CA127" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB127" t="s">
+        <v>256</v>
+      </c>
+      <c r="CC127" t="s">
+        <v>243</v>
+      </c>
+      <c r="CD127" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="CG127" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH127" t="s">
+        <v>256</v>
+      </c>
+      <c r="CI127" t="s">
+        <v>243</v>
+      </c>
+      <c r="CJ127" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:88">
       <c r="L128">
         <v>10000</v>
       </c>
       <c r="M128">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N128" s="16">
+      <c r="N128" s="13">
         <v>0.42986111111111108</v>
       </c>
-      <c r="O128" s="16">
+      <c r="O128" s="13">
         <v>0.44097222222222227</v>
       </c>
-    </row>
-    <row r="129" spans="1:16">
+      <c r="AG128" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH128">
+        <v>6500</v>
+      </c>
+      <c r="AI128">
+        <v>0.59</v>
+      </c>
+      <c r="AJ128" s="13">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="AK128" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="BD128" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE128">
+        <v>6500</v>
+      </c>
+      <c r="BF128" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="BG128" s="13">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="BH128" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="BI128" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="BK128" t="s">
+        <v>255</v>
+      </c>
+      <c r="BL128">
+        <v>6500</v>
+      </c>
+      <c r="BM128" s="12">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="BN128" s="13">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="BO128" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="BP128" s="19">
+        <f>(6*60+50)/6/60</f>
+        <v>1.1388888888888888</v>
+      </c>
+      <c r="BT128">
+        <v>6500</v>
+      </c>
+      <c r="BV128" s="13">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="BW128" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="BZ128">
+        <v>6500</v>
+      </c>
+      <c r="CB128" s="13">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="CC128" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="CD128" t="s">
+        <v>288</v>
+      </c>
+      <c r="CF128">
+        <v>500</v>
+      </c>
+      <c r="CG128">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:88">
       <c r="L129">
         <v>15000</v>
       </c>
       <c r="M129">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N129" s="16">
+      <c r="N129" s="13">
         <v>0.65208333333333335</v>
       </c>
-      <c r="O129" s="16">
+      <c r="O129" s="13">
         <v>0.83333333333333337</v>
       </c>
       <c r="P129" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="AH129">
+        <v>10000</v>
+      </c>
+      <c r="AI129">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AJ129" s="13">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="AK129" s="13">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="BE129">
+        <v>10000</v>
+      </c>
+      <c r="BF129">
+        <v>0.59</v>
+      </c>
+      <c r="BG129" s="13">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="BH129" s="13">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="BI129" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="BL129">
+        <v>10000</v>
+      </c>
+      <c r="BM129">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="BN129" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="BO129" s="13">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="BP129" s="20">
+        <f>11*60/(10*60+35)</f>
+        <v>1.0393700787401574</v>
+      </c>
+      <c r="BT129">
+        <v>10000</v>
+      </c>
+      <c r="BW129" s="13">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="BZ129">
+        <v>10000</v>
+      </c>
+      <c r="CA129">
+        <v>0.62</v>
+      </c>
+      <c r="CB129" s="13">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="CC129" s="13">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="CF129">
+        <v>6500</v>
+      </c>
+      <c r="CG129">
+        <v>0.6</v>
+      </c>
+      <c r="CH129" s="13">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="CI129" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="CJ129" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:88">
       <c r="L130">
         <v>15000</v>
       </c>
       <c r="M130">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N130" s="16">
+      <c r="N130" s="13">
         <v>0.78541666666666676</v>
       </c>
-      <c r="O130" s="16">
+      <c r="O130" s="13">
         <v>0.83333333333333337</v>
       </c>
       <c r="P130" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="AH130">
+        <v>15000</v>
+      </c>
+      <c r="AI130">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AJ130" s="13">
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="AK130" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AL130" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE130">
+        <v>15000</v>
+      </c>
+      <c r="BF130">
+        <v>0.63</v>
+      </c>
+      <c r="BG130" s="13">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="BH130" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BL130">
+        <v>15000</v>
+      </c>
+      <c r="BM130">
+        <v>0.63</v>
+      </c>
+      <c r="BN130" s="13">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="BO130" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BP130" s="20">
+        <f>((7*60+48)/9/60)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="BT130">
+        <v>15000</v>
+      </c>
+      <c r="BW130" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BZ130">
+        <v>15000</v>
+      </c>
+      <c r="CC130" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="CF130">
+        <v>10000</v>
+      </c>
+      <c r="CG130">
+        <v>0.61</v>
+      </c>
+      <c r="CH130" s="13">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="CI130" s="13">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:88">
       <c r="L131">
         <v>15000</v>
       </c>
       <c r="M131" t="s">
         <v>174</v>
       </c>
-      <c r="N131" s="16">
+      <c r="N131" s="13">
         <v>0.84652777777777777</v>
       </c>
-      <c r="O131" s="16">
+      <c r="O131" s="13">
         <v>0.83333333333333337</v>
       </c>
       <c r="P131" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="133" spans="1:16">
+      <c r="AH131">
+        <v>15000</v>
+      </c>
+      <c r="AI131">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AJ131" s="13">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="AK131" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AL131" t="s">
+        <v>259</v>
+      </c>
+      <c r="BE131">
+        <v>15000</v>
+      </c>
+      <c r="BG131" s="13"/>
+      <c r="BH131" s="13"/>
+      <c r="BL131">
+        <v>15000</v>
+      </c>
+      <c r="BN131" s="13"/>
+      <c r="BO131" s="13"/>
+      <c r="BP131" s="20"/>
+      <c r="CF131">
+        <v>15000</v>
+      </c>
+      <c r="CG131">
+        <v>0.68</v>
+      </c>
+      <c r="CH131" s="13">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="CI131" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="132" spans="1:88">
+      <c r="AH132">
+        <v>15000</v>
+      </c>
+      <c r="AI132" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ132" s="13">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="AK132" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AL132" t="s">
+        <v>258</v>
+      </c>
+      <c r="BE132">
+        <v>15000</v>
+      </c>
+      <c r="BG132" s="13"/>
+      <c r="BH132" s="13"/>
+      <c r="BL132">
+        <v>15000</v>
+      </c>
+      <c r="BN132" s="13"/>
+      <c r="BO132" s="13"/>
+      <c r="BP132" s="20"/>
+    </row>
+    <row r="133" spans="1:88">
       <c r="L133">
         <f>(2+8/60)*4</f>
         <v>8.5333333333333332</v>
       </c>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="CH133" s="13">
+        <v>0.73958333333333337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:88">
       <c r="L134">
         <f>0.5333*60</f>
         <v>31.998000000000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="AH134">
+        <f>(2+8/60)*4</f>
+        <v>8.5333333333333332</v>
+      </c>
+      <c r="CH134" s="21">
+        <v>1.0472222222222223</v>
+      </c>
+    </row>
+    <row r="135" spans="1:88">
       <c r="A135">
         <v>0.44</v>
       </c>
       <c r="B135">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="136" spans="1:16">
+      <c r="P135" t="s">
+        <v>260</v>
+      </c>
+      <c r="U135">
+        <v>19600</v>
+      </c>
+      <c r="V135">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AH135">
+        <f>0.5333*60</f>
+        <v>31.998000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:88">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -37412,8 +39858,17 @@
       <c r="K136" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="137" spans="1:16">
+      <c r="U136">
+        <v>15000</v>
+      </c>
+      <c r="V136">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="AL136" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:88">
       <c r="A137">
         <v>277</v>
       </c>
@@ -37436,8 +39891,15 @@
       <c r="K137">
         <v>-23</v>
       </c>
-    </row>
-    <row r="138" spans="1:16">
+      <c r="U137">
+        <f>(U135-U136)/(V135-V136)</f>
+        <v>-13199.426111908177</v>
+      </c>
+      <c r="V137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:88">
       <c r="A138">
         <v>422</v>
       </c>
@@ -37445,7 +39907,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:88">
       <c r="A139">
         <v>314</v>
       </c>
@@ -37463,14 +39925,22 @@
         <f>D53</f>
         <v>0.56569456043956057</v>
       </c>
-    </row>
-    <row r="140" spans="1:16">
+      <c r="U139">
+        <f>(V136-V135)/(U136-U135)</f>
+        <v>-7.5760869565217405E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:88">
       <c r="H140">
         <f>380/370*0.077</f>
         <v>7.908108108108107E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:16">
+      <c r="U140">
+        <f>0.92-15000*U139</f>
+        <v>2.056413043478261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:88">
       <c r="A141" t="s">
         <v>195</v>
       </c>
@@ -37478,7 +39948,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:88">
       <c r="A142">
         <v>245</v>
       </c>
@@ -37504,8 +39974,11 @@
       <c r="K142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:16">
+      <c r="U142" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:88">
       <c r="A143">
         <v>240</v>
       </c>
